--- a/biology/Zoologie/Aristonectidae/Aristonectidae.xlsx
+++ b/biology/Zoologie/Aristonectidae/Aristonectidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Aristonectidae forment une famille fossile de Plesiosauroidea semblables aux Elasmosauridae. 
 Elle est considérée par certains chercheurs comme une sous-famille de celle-ci.
@@ -512,11 +524,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La famille des Aristonectidae est décrite en 2009 par les paléontologues O'Keefe et Street[1],[2]. 
-Tatenectes laramiensis
-En 2011, O'Keefe et al. recombine Cimoliasaurus laramiensis en Tatenectes laramiensis, déclare Aristonectidae dans le clade Crytoclidia, lui-même dans l'ordre des Plesiosauria[3],[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La famille des Aristonectidae est décrite en 2009 par les paléontologues O'Keefe et Street,. 
 </t>
         </is>
       </c>
@@ -542,10 +554,49 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Tatenectes laramiensis</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2011, O'Keefe et al. recombine Cimoliasaurus laramiensis en Tatenectes laramiensis, déclare Aristonectidae dans le clade Crytoclidia, lui-même dans l'ordre des Plesiosauria,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Aristonectidae</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Aristonectidae</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Liste de genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 * Aristonectes Cabrera, 1941
@@ -555,7 +606,7 @@
 ? Tatenectes O'Keefe et Wahl, Jr., 2003
 Tuarangisaurus Wiffen and Moisley, 1986
 [réf. nécessaire]
-Selon Paleobiology Database en 2024, ces six genres sont classés dans les deux familles Elasmosauridae et Cryptoclididae, et la famille des Aristonectidae n'aurait pas de genres affectés[2].
+Selon Paleobiology Database en 2024, ces six genres sont classés dans les deux familles Elasmosauridae et Cryptoclididae, et la famille des Aristonectidae n'aurait pas de genres affectés.
 </t>
         </is>
       </c>
